--- a/tests/xl/simple-T.xlsx
+++ b/tests/xl/simple-T.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=TestArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2024-09-30 08:42:21.893184 - SchemaUrl=None</t>
+    <t>#Title=TestArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2024-10-04 13:00:12.250976 - SchemaUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45565</v>
+        <v>45569</v>
       </c>
       <c r="E10" s="5">
-        <v>45565</v>
+        <v>45569</v>
       </c>
       <c r="F10" s="5">
-        <v>45565</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45565.36275036888</v>
+        <v>45569.54180592114</v>
       </c>
       <c r="E11" s="6">
-        <v>45565.36275036888</v>
+        <v>45569.54180592114</v>
       </c>
       <c r="F11" s="6">
-        <v>45565.36275036888</v>
+        <v>45569.54180592114</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.3627503690740741</v>
+        <v>0.5418059212615741</v>
       </c>
       <c r="E12" s="7">
-        <v>0.3627503690740741</v>
+        <v>0.5418059212615741</v>
       </c>
       <c r="F12" s="7">
-        <v>0.3627503690740741</v>
+        <v>0.5418059212615741</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/tests/xl/simple-T.xlsx
+++ b/tests/xl/simple-T.xlsx
@@ -133,7 +133,7 @@
     <t>b_calcfloat</t>
   </si>
   <si>
-    <t>#Title=TestArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2024-10-04 13:00:12.250976 - SchemaUrl=None</t>
+    <t>#Title=TestArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-09-18 09:28:30.340200 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
@@ -750,13 +750,13 @@
         <v>34</v>
       </c>
       <c r="D10" s="5">
-        <v>45569</v>
+        <v>45918</v>
       </c>
       <c r="E10" s="5">
-        <v>45569</v>
+        <v>45918</v>
       </c>
       <c r="F10" s="5">
-        <v>45569</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -770,13 +770,13 @@
         <v>35</v>
       </c>
       <c r="D11" s="6">
-        <v>45569.54180592114</v>
+        <v>45918.39477812201</v>
       </c>
       <c r="E11" s="6">
-        <v>45569.54180592114</v>
+        <v>45918.39477812201</v>
       </c>
       <c r="F11" s="6">
-        <v>45569.54180592114</v>
+        <v>45918.39477812201</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -790,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>0.5418059212615741</v>
+        <v>0.3947781221296296</v>
       </c>
       <c r="E12" s="7">
-        <v>0.5418059212615741</v>
+        <v>0.3947781221296296</v>
       </c>
       <c r="F12" s="7">
-        <v>0.5418059212615741</v>
+        <v>0.3947781221296296</v>
       </c>
     </row>
     <row r="13" spans="1:6">
